--- a/data/fakecsv/dept_TWTR.xlsx
+++ b/data/fakecsv/dept_TWTR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="115">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,274 +40,298 @@
     <t>TWTR</t>
   </si>
   <si>
-    <t>4K87FUT74VBJNXDA9</t>
-  </si>
-  <si>
-    <t>54PHREAW9W79V6G3B</t>
-  </si>
-  <si>
-    <t>1VS30DYP4EES57SNF</t>
-  </si>
-  <si>
-    <t>XX092UPM63CGD2U7R</t>
-  </si>
-  <si>
-    <t>HG2FM0HU84X24U45Z</t>
-  </si>
-  <si>
-    <t>ZWDSB65J46SBCJKVV</t>
-  </si>
-  <si>
-    <t>DRPRCRK8XYFEYA0N5</t>
-  </si>
-  <si>
-    <t>BJKD7DC6811ADHRK7</t>
-  </si>
-  <si>
-    <t>VVMNMKXM2YH1JB0C4</t>
-  </si>
-  <si>
-    <t>NX7K7KKU309HYA83J</t>
-  </si>
-  <si>
-    <t>U1J7MFZ928J5MZJHU</t>
-  </si>
-  <si>
-    <t>H897RW677C9HSFB8Y</t>
-  </si>
-  <si>
-    <t>CL5JNVVE2L4X986DR</t>
-  </si>
-  <si>
-    <t>K8RPJGTJ3W5R6NLG6</t>
-  </si>
-  <si>
-    <t>6VEV9MHJ8B1Z17U2Z</t>
-  </si>
-  <si>
-    <t>VMMX0RMLXD95ERV8Z</t>
-  </si>
-  <si>
-    <t>PF3CC8N18SDDH0BB0</t>
-  </si>
-  <si>
-    <t>ZBKDY8756G35E36AP</t>
-  </si>
-  <si>
-    <t>FLV1TMLW3NG3ASYJE</t>
-  </si>
-  <si>
-    <t>TEYNAE3L4ASHH2WNA</t>
-  </si>
-  <si>
-    <t>8X5FW6AA039NMPXEE</t>
-  </si>
-  <si>
-    <t>8LJCLEE6X150W9DL2</t>
-  </si>
-  <si>
-    <t>5YFS7FWZ91Y434H8U</t>
-  </si>
-  <si>
-    <t>5NF9UWUX4MG6VKN8A</t>
-  </si>
-  <si>
-    <t>K597LV9T6CAGZKKXV</t>
-  </si>
-  <si>
-    <t>X0UL37U85JW6FNNYP</t>
-  </si>
-  <si>
-    <t>8KSJE2PP1VUTGHZ9K</t>
-  </si>
-  <si>
-    <t>35MX04U58CFEN4AHT</t>
-  </si>
-  <si>
-    <t>7L7U851R9J8UNRA63</t>
-  </si>
-  <si>
-    <t>WX4S4S2X7XRW2RDS4</t>
-  </si>
-  <si>
-    <t>UCJNG2WL1PJM24SYU</t>
-  </si>
-  <si>
-    <t>GJFGBY3WXWA87RELT</t>
-  </si>
-  <si>
-    <t>C4B3WVZE8SWK1J3NF</t>
-  </si>
-  <si>
-    <t>85NCMZVX9J4HP3AY0</t>
-  </si>
-  <si>
-    <t>X9KUG6LV8M8EPSWNJ</t>
-  </si>
-  <si>
-    <t>2LRPJ7YJ83YY0PXTD</t>
-  </si>
-  <si>
-    <t>63VZLSLT3FGGF02ZB</t>
-  </si>
-  <si>
-    <t>UJ9ZLDGH8A0G9VAJS</t>
-  </si>
-  <si>
-    <t>UM02L7AH7ALMSWPKK</t>
-  </si>
-  <si>
-    <t>YSVFY1UV5R2V3B5KL</t>
-  </si>
-  <si>
-    <t>YY56ZR0E5KFCBS2ZM</t>
-  </si>
-  <si>
-    <t>FTXZBWSB8J9N8FNHK</t>
-  </si>
-  <si>
-    <t>MSNY5J5L97ENGW3V0</t>
-  </si>
-  <si>
-    <t>N4M5RAL38N8MMPW4A</t>
-  </si>
-  <si>
-    <t>PL3K78E48XF7H2F67</t>
-  </si>
-  <si>
-    <t>Anthony Jenkins</t>
-  </si>
-  <si>
-    <t>Joseph Rojas</t>
-  </si>
-  <si>
-    <t>Shannon Jackson</t>
-  </si>
-  <si>
-    <t>Kristy Tyler</t>
-  </si>
-  <si>
-    <t>Douglas Carey</t>
-  </si>
-  <si>
-    <t>Mary Boone</t>
-  </si>
-  <si>
-    <t>Angela Macdonald</t>
-  </si>
-  <si>
-    <t>Kelly Bartlett</t>
-  </si>
-  <si>
-    <t>Cindy Beck</t>
-  </si>
-  <si>
-    <t>Brenda Jordan</t>
-  </si>
-  <si>
-    <t>Brian Cooper</t>
-  </si>
-  <si>
-    <t>Thomas King</t>
-  </si>
-  <si>
-    <t>Ashley Pratt</t>
-  </si>
-  <si>
-    <t>Gail Pearson</t>
-  </si>
-  <si>
-    <t>Mark Myers</t>
-  </si>
-  <si>
-    <t>Chase Jones</t>
-  </si>
-  <si>
-    <t>Christopher Edwards</t>
-  </si>
-  <si>
-    <t>Marc Wilson</t>
-  </si>
-  <si>
-    <t>Pamela King</t>
-  </si>
-  <si>
-    <t>Jonathan Harper</t>
-  </si>
-  <si>
-    <t>Adam Warren</t>
-  </si>
-  <si>
-    <t>Vincent Ross</t>
-  </si>
-  <si>
-    <t>Suzanne Montgomery</t>
-  </si>
-  <si>
-    <t>Stephanie Guzman</t>
-  </si>
-  <si>
-    <t>Matthew Jenkins</t>
-  </si>
-  <si>
-    <t>Jason Horn</t>
-  </si>
-  <si>
-    <t>Tina Wood</t>
-  </si>
-  <si>
-    <t>Felicia Rogers</t>
-  </si>
-  <si>
-    <t>Joseph Oliver</t>
-  </si>
-  <si>
-    <t>Clifford Cooper</t>
-  </si>
-  <si>
-    <t>Nathaniel Nguyen</t>
-  </si>
-  <si>
-    <t>Marissa Powell</t>
-  </si>
-  <si>
-    <t>Hannah Oliver</t>
-  </si>
-  <si>
-    <t>Caroline Donaldson</t>
-  </si>
-  <si>
-    <t>Mr. Michael Meyers Jr.</t>
-  </si>
-  <si>
-    <t>Amanda Aguilar</t>
-  </si>
-  <si>
-    <t>Shelby Williams</t>
-  </si>
-  <si>
-    <t>Elizabeth Curtis</t>
-  </si>
-  <si>
-    <t>William Williams</t>
-  </si>
-  <si>
-    <t>Mrs. Danielle Livingston</t>
-  </si>
-  <si>
-    <t>Holly Brooks</t>
-  </si>
-  <si>
-    <t>Jenna Blackburn</t>
-  </si>
-  <si>
-    <t>Kim Powell</t>
-  </si>
-  <si>
-    <t>Randy Jones</t>
-  </si>
-  <si>
-    <t>Jennifer Campbell</t>
+    <t>2APEHS202DARBBL1F</t>
+  </si>
+  <si>
+    <t>4FU2SGV54DK0PH4R2</t>
+  </si>
+  <si>
+    <t>N68DUXKT0J58RYUF4</t>
+  </si>
+  <si>
+    <t>1XDCM3Z0XD75HA9DL</t>
+  </si>
+  <si>
+    <t>0H7K04336NTNZ0PJJ</t>
+  </si>
+  <si>
+    <t>1AERKBZ96E4FXXNHY</t>
+  </si>
+  <si>
+    <t>JTUSJL0U8A1ZVD338</t>
+  </si>
+  <si>
+    <t>NEU3SG8T54TJTWBZR</t>
+  </si>
+  <si>
+    <t>JMZEA4DW6VFMGFSUW</t>
+  </si>
+  <si>
+    <t>VMN664DM1004YTAAE</t>
+  </si>
+  <si>
+    <t>W56ALFDU9JZEA8XG7</t>
+  </si>
+  <si>
+    <t>6RA9RW246ZAKCNXTG</t>
+  </si>
+  <si>
+    <t>RG7GWD4C9FGNYDTSF</t>
+  </si>
+  <si>
+    <t>AH9BXJZG82RTAU7EN</t>
+  </si>
+  <si>
+    <t>PAYFGMKS9NR7FPRPH</t>
+  </si>
+  <si>
+    <t>X32BBUJP2TZSJB7TM</t>
+  </si>
+  <si>
+    <t>KKET7V5U14CZ618U5</t>
+  </si>
+  <si>
+    <t>7UXFXP4M9N3L4ZYJ1</t>
+  </si>
+  <si>
+    <t>NRCTGSU73J5DJ4KEX</t>
+  </si>
+  <si>
+    <t>S3BH0S3N9H7R7BXNF</t>
+  </si>
+  <si>
+    <t>J675YPLM8LV3XG41B</t>
+  </si>
+  <si>
+    <t>DE3F5F6D8AU4UD75V</t>
+  </si>
+  <si>
+    <t>489FR2734P06U0V02</t>
+  </si>
+  <si>
+    <t>ST2CB9SK6SNTW3BKG</t>
+  </si>
+  <si>
+    <t>8FXCE792458EZ3EKR</t>
+  </si>
+  <si>
+    <t>41JFYRFX5Z3657NC5</t>
+  </si>
+  <si>
+    <t>ZX7DDZWHXNP8XTDLP</t>
+  </si>
+  <si>
+    <t>P7JT3MDB925XNFZ3B</t>
+  </si>
+  <si>
+    <t>J0XK808C23YX35RVB</t>
+  </si>
+  <si>
+    <t>FSCVKGWK8UFK1X10R</t>
+  </si>
+  <si>
+    <t>T1YFATN14FD246GE3</t>
+  </si>
+  <si>
+    <t>TR4EED790HRA4T2LY</t>
+  </si>
+  <si>
+    <t>4GKM2PY151X38TFYP</t>
+  </si>
+  <si>
+    <t>NKNVWMWK2L5HP55E9</t>
+  </si>
+  <si>
+    <t>44G1P3SY5LG26T37G</t>
+  </si>
+  <si>
+    <t>4J801RYU0P40W2FWL</t>
+  </si>
+  <si>
+    <t>22FRMZUW1L3NRS67A</t>
+  </si>
+  <si>
+    <t>1Y019B5E7WD0V2TT4</t>
+  </si>
+  <si>
+    <t>1PLGESEH4PX92MRWH</t>
+  </si>
+  <si>
+    <t>YZK2K1H28P62JXF9J</t>
+  </si>
+  <si>
+    <t>Z4M4AU9Z4FYW762AV</t>
+  </si>
+  <si>
+    <t>UG7LD2W972N5758P8</t>
+  </si>
+  <si>
+    <t>8BSDLXWJ5TZVF1T87</t>
+  </si>
+  <si>
+    <t>WTZ3FVG761KSEL6BH</t>
+  </si>
+  <si>
+    <t>VZ5NWC904K6DF59ZT</t>
+  </si>
+  <si>
+    <t>ZCV4ZZ239VDD39DXS</t>
+  </si>
+  <si>
+    <t>K2V8XYHY9LC2XR08X</t>
+  </si>
+  <si>
+    <t>NL31JHDH41NM8M4HB</t>
+  </si>
+  <si>
+    <t>0HEC76XU9Z977YTXD</t>
+  </si>
+  <si>
+    <t>Dawn Ellis</t>
+  </si>
+  <si>
+    <t>Nathan Brown</t>
+  </si>
+  <si>
+    <t>Evan Hunter</t>
+  </si>
+  <si>
+    <t>Tanya Young</t>
+  </si>
+  <si>
+    <t>Susan Boyle</t>
+  </si>
+  <si>
+    <t>Courtney Turner</t>
+  </si>
+  <si>
+    <t>Andrew Martin</t>
+  </si>
+  <si>
+    <t>Amanda Campos</t>
+  </si>
+  <si>
+    <t>Wendy Quinn</t>
+  </si>
+  <si>
+    <t>Margaret Williams</t>
+  </si>
+  <si>
+    <t>Christopher Mason</t>
+  </si>
+  <si>
+    <t>Christopher Yu</t>
+  </si>
+  <si>
+    <t>Clayton Johns</t>
+  </si>
+  <si>
+    <t>Mr. Keith Gardner Jr.</t>
+  </si>
+  <si>
+    <t>Amanda Ross</t>
+  </si>
+  <si>
+    <t>Jessica Ray</t>
+  </si>
+  <si>
+    <t>Dillon Aguirre</t>
+  </si>
+  <si>
+    <t>Dr. Linda Franklin</t>
+  </si>
+  <si>
+    <t>Andrew Clay</t>
+  </si>
+  <si>
+    <t>Amanda Brock</t>
+  </si>
+  <si>
+    <t>Janet Dunn</t>
+  </si>
+  <si>
+    <t>Theresa Reynolds</t>
+  </si>
+  <si>
+    <t>Rachel Thomas</t>
+  </si>
+  <si>
+    <t>James Greene</t>
+  </si>
+  <si>
+    <t>Aaron Lane</t>
+  </si>
+  <si>
+    <t>Megan Edwards</t>
+  </si>
+  <si>
+    <t>John Hull</t>
+  </si>
+  <si>
+    <t>Scott Walsh</t>
+  </si>
+  <si>
+    <t>Tonya Martinez</t>
+  </si>
+  <si>
+    <t>Brian Fox</t>
+  </si>
+  <si>
+    <t>Erica Kelley</t>
+  </si>
+  <si>
+    <t>Mike Ayers</t>
+  </si>
+  <si>
+    <t>Maria Moreno</t>
+  </si>
+  <si>
+    <t>Mr. Terry Silva</t>
+  </si>
+  <si>
+    <t>Nancy Sutton</t>
+  </si>
+  <si>
+    <t>Sean Page</t>
+  </si>
+  <si>
+    <t>Mary Mitchell</t>
+  </si>
+  <si>
+    <t>Jennifer Thomas</t>
+  </si>
+  <si>
+    <t>Catherine Walters</t>
+  </si>
+  <si>
+    <t>Brittany Wilson</t>
+  </si>
+  <si>
+    <t>Joyce Payne</t>
+  </si>
+  <si>
+    <t>Melissa Armstrong</t>
+  </si>
+  <si>
+    <t>Katie Howard</t>
+  </si>
+  <si>
+    <t>Tammy Thompson DDS</t>
+  </si>
+  <si>
+    <t>Ashley Patel</t>
+  </si>
+  <si>
+    <t>Jesse Fox</t>
+  </si>
+  <si>
+    <t>Rebekah Roberts</t>
+  </si>
+  <si>
+    <t>Alexis Hall</t>
+  </si>
+  <si>
+    <t>Samuel Hahn</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -692,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,10 +753,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -743,13 +767,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -760,13 +784,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -777,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -797,10 +821,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -814,10 +838,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -831,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -848,10 +872,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -865,10 +889,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -882,10 +906,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -896,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -913,13 +937,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -930,13 +954,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -947,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -964,13 +988,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -981,13 +1005,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -998,13 +1022,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1015,13 +1039,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1032,13 +1056,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1049,13 +1073,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1066,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1083,13 +1107,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1100,13 +1124,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1117,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1134,13 +1158,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1151,13 +1175,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1168,13 +1192,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1185,13 +1209,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1202,13 +1226,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1219,13 +1243,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1236,13 +1260,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1253,13 +1277,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,13 +1294,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,13 +1328,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,13 +1345,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1338,13 +1362,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1355,13 +1379,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1372,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1389,13 +1413,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1406,13 +1430,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1423,13 +1447,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1440,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1457,13 +1481,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1474,13 +1498,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1491,13 +1515,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1508,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1525,13 +1549,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1542,13 +1566,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1559,13 +1583,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1576,13 +1600,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1593,13 +1617,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1610,13 +1634,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1627,13 +1651,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1644,13 +1668,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1661,13 +1685,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1678,13 +1702,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1695,13 +1719,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1712,13 +1736,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1729,13 +1753,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1746,13 +1770,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1763,13 +1787,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1780,13 +1804,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1797,13 +1821,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1814,13 +1838,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1831,13 +1855,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1851,10 +1875,10 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1868,10 +1892,10 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1885,10 +1909,10 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1902,10 +1926,10 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1919,10 +1943,10 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1936,10 +1960,10 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1953,10 +1977,10 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1967,13 +1991,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1987,10 +2011,10 @@
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2001,13 +2025,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2018,13 +2042,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2035,13 +2059,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2052,13 +2076,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2069,13 +2093,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2086,13 +2110,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2103,13 +2127,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2120,13 +2144,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2137,13 +2161,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2154,13 +2178,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2171,13 +2195,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2188,13 +2212,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2205,13 +2229,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2222,13 +2246,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2239,13 +2263,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2256,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2273,13 +2297,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2290,13 +2314,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2307,13 +2331,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2324,13 +2348,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2341,13 +2365,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2358,13 +2382,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2375,13 +2399,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2392,13 +2416,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2409,13 +2433,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2426,13 +2450,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2443,13 +2467,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2460,13 +2484,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2477,13 +2501,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2494,13 +2518,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2511,13 +2535,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2528,13 +2552,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2545,13 +2569,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2562,13 +2586,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2579,13 +2603,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E111" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2596,13 +2620,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E112" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2613,13 +2637,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E113" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2630,13 +2654,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E114" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2647,13 +2671,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2664,13 +2688,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E116" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2681,13 +2705,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E117" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2698,13 +2722,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E118" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2715,13 +2739,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E119" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2732,13 +2756,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E120" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2749,13 +2773,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E121" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2766,13 +2790,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2783,13 +2807,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E123" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2800,13 +2824,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E124" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2817,13 +2841,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2834,13 +2858,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2851,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E127" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2868,13 +2892,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D128" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2885,10 +2909,10 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E129" t="s">
         <v>106</v>
@@ -2902,13 +2926,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E130" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2919,13 +2943,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E131" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2936,13 +2960,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D132" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E132" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2953,13 +2977,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2970,13 +2994,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D134" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E134" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2987,13 +3011,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E135" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3004,13 +3028,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E136" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3021,13 +3045,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E137" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3038,13 +3062,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E138" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3055,13 +3079,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3072,13 +3096,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D140" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E140" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3089,13 +3113,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3106,13 +3130,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E142" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3123,13 +3147,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E143" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3140,13 +3164,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E144" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3157,13 +3181,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E145" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3174,13 +3198,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E146" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3191,13 +3215,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D147" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E147" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3208,13 +3232,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E148" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3225,13 +3249,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E149" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3242,13 +3266,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E150" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3259,13 +3283,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E151" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3276,13 +3300,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D152" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E152" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3293,13 +3317,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D153" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E153" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3310,13 +3334,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E154" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3327,13 +3351,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E155" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3344,13 +3368,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E156" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3361,13 +3385,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D157" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E157" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3378,13 +3402,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E158" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3395,13 +3419,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D159" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E159" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3412,13 +3436,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D160" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E160" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3429,13 +3453,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D161" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E161" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3446,13 +3470,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D162" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3463,13 +3487,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D163" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E163" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3480,13 +3504,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D164" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E164" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3497,13 +3521,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D165" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E165" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3514,13 +3538,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D166" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E166" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3531,13 +3555,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D167" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E167" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3548,13 +3572,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D168" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E168" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3565,13 +3589,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D169" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E169" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3582,13 +3606,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D170" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E170" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3599,13 +3623,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D171" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E171" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3616,13 +3640,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D172" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E172" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3633,13 +3657,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D173" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E173" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3650,13 +3674,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E174" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3667,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D175" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E175" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3684,13 +3708,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D176" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E176" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3701,13 +3725,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D177" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E177" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3718,13 +3742,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D178" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E178" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3735,13 +3759,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D179" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E179" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3752,13 +3776,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D180" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E180" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3769,13 +3793,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D181" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E181" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3786,13 +3810,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D182" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E182" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3803,13 +3827,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D183" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E183" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3820,13 +3844,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D184" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3837,13 +3861,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D185" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E185" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3854,13 +3878,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D186" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E186" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3871,13 +3895,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D187" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E187" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3888,13 +3912,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D188" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E188" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3905,13 +3929,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D189" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E189" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3922,13 +3946,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D190" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E190" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3939,13 +3963,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D191" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E191" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3956,13 +3980,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D192" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E192" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3973,13 +3997,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D193" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E193" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3990,13 +4014,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D194" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E194" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4007,13 +4031,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D195" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E195" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4024,13 +4048,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D196" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E196" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4041,13 +4065,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D197" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E197" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4058,13 +4082,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D198" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E198" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4075,13 +4099,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D199" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E199" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4092,13 +4116,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D200" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E200" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4109,13 +4133,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D201" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E201" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4126,13 +4150,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D202" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E202" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4143,13 +4167,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D203" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E203" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4160,13 +4184,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D204" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E204" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4177,13 +4201,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D205" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E205" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4194,13 +4218,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D206" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E206" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4211,13 +4235,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D207" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E207" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4228,13 +4252,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D208" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E208" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4245,13 +4269,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D209" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E209" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4262,13 +4286,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D210" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E210" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4279,13 +4303,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D211" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E211" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4296,13 +4320,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D212" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E212" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4313,13 +4337,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D213" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E213" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4330,13 +4354,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D214" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E214" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4347,13 +4371,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D215" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E215" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4364,13 +4388,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D216" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E216" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4381,13 +4405,13 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D217" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E217" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4398,13 +4422,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D218" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E218" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4415,13 +4439,13 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D219" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E219" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4432,13 +4456,13 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D220" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E220" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4449,13 +4473,13 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D221" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E221" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4466,13 +4490,13 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D222" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E222" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4483,13 +4507,13 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D223" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E223" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4500,13 +4524,13 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D224" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E224" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4517,13 +4541,13 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D225" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E225" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4534,13 +4558,13 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D226" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E226" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4551,13 +4575,13 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D227" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E227" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4568,13 +4592,13 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D228" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E228" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4585,13 +4609,13 @@
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D229" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E229" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4602,13 +4626,13 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D230" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E230" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4619,13 +4643,13 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D231" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E231" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4636,13 +4660,13 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D232" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E232" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4653,13 +4677,13 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D233" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E233" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4670,13 +4694,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D234" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E234" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4687,13 +4711,13 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D235" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E235" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4704,13 +4728,13 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D236" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E236" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4721,13 +4745,13 @@
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D237" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E237" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4738,13 +4762,13 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D238" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E238" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4755,13 +4779,13 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D239" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E239" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4772,370 +4796,13 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D240" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E240" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" t="s">
-        <v>6</v>
-      </c>
-      <c r="B241" t="s">
-        <v>7</v>
-      </c>
-      <c r="C241" t="s">
-        <v>49</v>
-      </c>
-      <c r="D241" t="s">
-        <v>94</v>
-      </c>
-      <c r="E241" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242" t="s">
-        <v>49</v>
-      </c>
-      <c r="D242" t="s">
-        <v>94</v>
-      </c>
-      <c r="E242" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" t="s">
-        <v>6</v>
-      </c>
-      <c r="B243" t="s">
-        <v>7</v>
-      </c>
-      <c r="C243" t="s">
-        <v>49</v>
-      </c>
-      <c r="D243" t="s">
-        <v>94</v>
-      </c>
-      <c r="E243" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" t="s">
-        <v>6</v>
-      </c>
-      <c r="B244" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" t="s">
-        <v>49</v>
-      </c>
-      <c r="D244" t="s">
-        <v>94</v>
-      </c>
-      <c r="E244" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" t="s">
-        <v>6</v>
-      </c>
-      <c r="B245" t="s">
-        <v>7</v>
-      </c>
-      <c r="C245" t="s">
-        <v>50</v>
-      </c>
-      <c r="D245" t="s">
-        <v>95</v>
-      </c>
-      <c r="E245" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" t="s">
-        <v>6</v>
-      </c>
-      <c r="B246" t="s">
-        <v>7</v>
-      </c>
-      <c r="C246" t="s">
-        <v>50</v>
-      </c>
-      <c r="D246" t="s">
-        <v>95</v>
-      </c>
-      <c r="E246" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
-        <v>6</v>
-      </c>
-      <c r="B247" t="s">
-        <v>7</v>
-      </c>
-      <c r="C247" t="s">
-        <v>50</v>
-      </c>
-      <c r="D247" t="s">
-        <v>95</v>
-      </c>
-      <c r="E247" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
-        <v>6</v>
-      </c>
-      <c r="B248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C248" t="s">
-        <v>50</v>
-      </c>
-      <c r="D248" t="s">
-        <v>95</v>
-      </c>
-      <c r="E248" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>6</v>
-      </c>
-      <c r="B249" t="s">
-        <v>7</v>
-      </c>
-      <c r="C249" t="s">
-        <v>50</v>
-      </c>
-      <c r="D249" t="s">
-        <v>95</v>
-      </c>
-      <c r="E249" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
-        <v>6</v>
-      </c>
-      <c r="B250" t="s">
-        <v>7</v>
-      </c>
-      <c r="C250" t="s">
-        <v>50</v>
-      </c>
-      <c r="D250" t="s">
-        <v>95</v>
-      </c>
-      <c r="E250" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" t="s">
-        <v>6</v>
-      </c>
-      <c r="B251" t="s">
-        <v>7</v>
-      </c>
-      <c r="C251" t="s">
-        <v>50</v>
-      </c>
-      <c r="D251" t="s">
-        <v>95</v>
-      </c>
-      <c r="E251" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" t="s">
-        <v>6</v>
-      </c>
-      <c r="B252" t="s">
-        <v>7</v>
-      </c>
-      <c r="C252" t="s">
-        <v>51</v>
-      </c>
-      <c r="D252" t="s">
-        <v>96</v>
-      </c>
-      <c r="E252" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
-        <v>6</v>
-      </c>
-      <c r="B253" t="s">
-        <v>7</v>
-      </c>
-      <c r="C253" t="s">
-        <v>51</v>
-      </c>
-      <c r="D253" t="s">
-        <v>96</v>
-      </c>
-      <c r="E253" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" t="s">
-        <v>6</v>
-      </c>
-      <c r="B254" t="s">
-        <v>7</v>
-      </c>
-      <c r="C254" t="s">
-        <v>52</v>
-      </c>
-      <c r="D254" t="s">
-        <v>97</v>
-      </c>
-      <c r="E254" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" t="s">
-        <v>6</v>
-      </c>
-      <c r="B255" t="s">
-        <v>7</v>
-      </c>
-      <c r="C255" t="s">
-        <v>52</v>
-      </c>
-      <c r="D255" t="s">
-        <v>97</v>
-      </c>
-      <c r="E255" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" t="s">
-        <v>6</v>
-      </c>
-      <c r="B256" t="s">
-        <v>7</v>
-      </c>
-      <c r="C256" t="s">
-        <v>52</v>
-      </c>
-      <c r="D256" t="s">
-        <v>97</v>
-      </c>
-      <c r="E256" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" t="s">
-        <v>6</v>
-      </c>
-      <c r="B257" t="s">
-        <v>7</v>
-      </c>
-      <c r="C257" t="s">
-        <v>52</v>
-      </c>
-      <c r="D257" t="s">
-        <v>97</v>
-      </c>
-      <c r="E257" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" t="s">
-        <v>6</v>
-      </c>
-      <c r="B258" t="s">
-        <v>7</v>
-      </c>
-      <c r="C258" t="s">
-        <v>52</v>
-      </c>
-      <c r="D258" t="s">
-        <v>97</v>
-      </c>
-      <c r="E258" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
-        <v>6</v>
-      </c>
-      <c r="B259" t="s">
-        <v>7</v>
-      </c>
-      <c r="C259" t="s">
-        <v>52</v>
-      </c>
-      <c r="D259" t="s">
-        <v>97</v>
-      </c>
-      <c r="E259" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>6</v>
-      </c>
-      <c r="B260" t="s">
-        <v>7</v>
-      </c>
-      <c r="C260" t="s">
-        <v>52</v>
-      </c>
-      <c r="D260" t="s">
-        <v>97</v>
-      </c>
-      <c r="E260" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
-        <v>6</v>
-      </c>
-      <c r="B261" t="s">
-        <v>7</v>
-      </c>
-      <c r="C261" t="s">
-        <v>52</v>
-      </c>
-      <c r="D261" t="s">
-        <v>97</v>
-      </c>
-      <c r="E261" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
